--- a/biology/Botanique/Emily_N._Wabuyele/Emily_N._Wabuyele.xlsx
+++ b/biology/Botanique/Emily_N._Wabuyele/Emily_N._Wabuyele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emily N. Wabuyele est une botaniste.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms publiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En tant que taxonomiste, Emily Wabuyele a décrit huit nouvelles espèces ; 
 Adansonia kilima 	      Pettigrew, K.L.Bell, Bhagw., Grinan, Jillani, Jean Mey. Wabuyele  (2012). =  Adansonia digitata L.
